--- a/数据填入备份.xlsx
+++ b/数据填入备份.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56c2ce8ebdb21d69/桌面/配装计算/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\entertainment\MHR数据\codecalculate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{59649925-2282-46FF-A3D0-4DDD8F3EDA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{597107DC-3EE8-4150-993F-C8ADCB5103F6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B628FE6F-3125-4652-AD4E-5A4312012A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
   <si>
     <t>武器面板会心</t>
   </si>
@@ -179,11 +179,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>防具技能选择，左边填最低允许等级，右边填最高允许等级，不需要此技能请至少将左边填“-1”  覆盖率为0-1的小数，请注意相关技能之间覆盖率的彼此影响，具体请查看readme.md文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>伏魔耗命（3）蓝</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>防具技能选择，左边填最低允许等级，右边填最高允许等级，不需要此技能请至少将左边填“-1”  覆盖率为0-1的小数，请注意相关技能之间覆盖率的彼此影响，具体请查看readme文档</t>
+    <t>巧击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷袭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆盖率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱特属性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -528,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -553,7 +569,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -592,10 +608,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -608,7 +624,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -633,7 +649,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -655,7 +671,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -673,18 +689,18 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -728,7 +744,7 @@
         <v>19</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>22</v>
@@ -757,61 +773,73 @@
       <c r="X19" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2">
         <v>7</v>
       </c>
       <c r="C20" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D20" s="2">
         <v>5</v>
       </c>
       <c r="E20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2">
         <v>5</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H20" s="2">
         <v>3</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="2">
         <v>3</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L20" s="2">
         <v>5</v>
       </c>
       <c r="M20" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N20" s="2">
         <v>5</v>
       </c>
       <c r="O20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S20" s="2">
         <v>0</v>
@@ -820,10 +848,10 @@
         <v>3</v>
       </c>
       <c r="U20" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W20" s="2">
         <v>0</v>
@@ -831,8 +859,20 @@
       <c r="X20" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y20" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -869,13 +909,19 @@
       <c r="W21" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -884,7 +930,7 @@
         <v>0.3</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -893,10 +939,10 @@
         <v>1</v>
       </c>
       <c r="O22" s="2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="Q22" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="S22" s="1">
         <v>0.35</v>
@@ -905,10 +951,16 @@
         <v>0.3</v>
       </c>
       <c r="W22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -934,7 +986,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -960,7 +1012,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -974,7 +1026,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -988,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -1008,27 +1060,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B28" s="2">
         <v>7</v>
       </c>
       <c r="C28" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D28" s="2">
         <v>3</v>
       </c>
       <c r="E28" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F28" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1039,18 +1091,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
       <c r="C30" s="2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -1063,8 +1115,14 @@
       <c r="D31" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>0</v>
       </c>
@@ -1077,21 +1135,33 @@
       <c r="D32" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
